--- a/resources/experiment 1/metrics/R2/incidence/Neuropatía (INC).xlsx
+++ b/resources/experiment 1/metrics/R2/incidence/Neuropatía (INC).xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9984665559653066</v>
+        <v>0.9981734024742205</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9984668972015976</v>
+        <v>0.9981728679661583</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9984668972015976</v>
+        <v>0.9963629770444413</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9989463203286424</v>
+        <v>0.9981207691050202</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9989463203286424</v>
+        <v>0.9982289403384877</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9989463203286424</v>
+        <v>0.9963231653004051</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9904814369165006</v>
+        <v>0.9986668374692407</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9904814369165006</v>
+        <v>0.9985228570479242</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9904814369165006</v>
+        <v>0.998834272629967</v>
       </c>
     </row>
   </sheetData>
